--- a/Webscraper/quotes.xlsx
+++ b/Webscraper/quotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Webscraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D467BA-6F81-4F49-9883-917EB240FDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECD5C0A-FC55-4BB1-BAC8-F28BCC298770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3396" yWindow="3360" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>UBSG:SWX Quotes</t>
+    <t>UBS Quotes</t>
   </si>
 </sst>
 </file>
@@ -341,17 +341,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="6" width="8.88671875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -365,6 +365,9 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3"/>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Webscraper/quotes.xlsx
+++ b/Webscraper/quotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Webscraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECD5C0A-FC55-4BB1-BAC8-F28BCC298770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E80DE7-EB63-4F25-9F9B-5A2FFDC36636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3396" yWindow="3360" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main-Quotes" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>UBS Quotes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>UBS</t>
+  </si>
+  <si>
+    <t>Schindler</t>
+  </si>
+  <si>
+    <t>Moncler</t>
+  </si>
+  <si>
+    <t>Kone</t>
+  </si>
+  <si>
+    <t>Catalana</t>
+  </si>
+  <si>
+    <t>TCS Group</t>
+  </si>
+  <si>
+    <t>Admiral</t>
+  </si>
+  <si>
+    <t>Imperial Brands</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Berkshire</t>
+  </si>
+  <si>
+    <t>Credit Acceptance</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>25/03/2022 12:18:22</t>
+  </si>
+  <si>
+    <t> 17.77</t>
+  </si>
+  <si>
+    <t> 201.60</t>
+  </si>
+  <si>
+    <t>50.02</t>
+  </si>
+  <si>
+    <t>48.30</t>
+  </si>
+  <si>
+    <t>27.65</t>
+  </si>
+  <si>
+    <t>3,040.50</t>
+  </si>
+  <si>
+    <t> 2,552.52</t>
+  </si>
+  <si>
+    <t> 1,636.97</t>
+  </si>
+  <si>
+    <t> 6,348.00</t>
+  </si>
+  <si>
+    <t>2,831.44</t>
+  </si>
+  <si>
+    <t>3,272.99</t>
+  </si>
+  <si>
+    <t>352.37</t>
+  </si>
+  <si>
+    <t>526.94</t>
+  </si>
+  <si>
+    <t>219.57</t>
   </si>
 </sst>
 </file>
@@ -58,9 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,32 +427,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="8.88671875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
